--- a/biology/Botanique/Manuscrits_du_Yinqueshan/Manuscrits_du_Yinqueshan.xlsx
+++ b/biology/Botanique/Manuscrits_du_Yinqueshan/Manuscrits_du_Yinqueshan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les manuscrits du Yinqueshan (chinois simplifié : 银雀山汉简 ; chinois traditionnel : 銀雀山漢簡 ; pinyin : Yínquèshān Hànjiǎn) ont été découverts le 10 avril 1972 à Yinqueshan (银雀山), au sud-est de la ville de Linyi, dans la province de Shandong. Dans une tombe ont été découvertes 4942 textes en lamelles de bambou contenant des textes militaires et sur la divination, certains connus et d'autres inconnus jusqu'alors. Certains textes sont similaires à l'encyclopédie Guanzi ou aux textes de Mozi. La tombe fut identifiée comme celle d'un officier nommé Sima. 
 La même année, une deuxième tombe est mise au jour, qui contient 32 textes en lamelles de bambou, dont un calendrier de l'année 134 av. J.-C.. 
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
